--- a/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
+++ b/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Documents\workspaces\solr\SolrScripts\results-gc\set-400\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Documents\workspaces\solr\SolrScripts\results-gc\set-verifying\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="897">
   <si>
     <t>id</t>
   </si>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>0c2a0e2ce36a09f0ea0ed1819916983a39366fef</t>
-  </si>
-  <si>
-    <t>Patch Set 3:
-David, could you PTAL?</t>
   </si>
   <si>
     <t>3588a5011ffdda760693c965c0d836994fd0ef81</t>
@@ -3388,6 +3384,92 @@
   </si>
   <si>
     <t>The author is uncertain/confused about how it works.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>The author is not sure about how is going to be the merge.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the problem.</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patch Set 3:
+David, could you PTAL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Please Take Another Look)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="204"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>The author is uncertain about the solution.</t>
+  </si>
+  <si>
+    <t>The author is confused about a specific value in the code.</t>
+  </si>
+  <si>
+    <t>The author express lack of knowledge</t>
+  </si>
+  <si>
+    <t>The author express confusion about the code</t>
+  </si>
+  <si>
+    <t>It is just the author opinion</t>
+  </si>
+  <si>
+    <t>The author is not sure about whether system contains something</t>
+  </si>
+  <si>
+    <t>The author is not sure about the system execution in other devides</t>
+  </si>
+  <si>
+    <t>The authos is simple giving his suggestion</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the system behavior</t>
+  </si>
+  <si>
+    <t>The author is confused about the change</t>
+  </si>
+  <si>
+    <t>The author is confused about what to do with the change</t>
+  </si>
+  <si>
+    <t>The author in unsure about removing the unused methods</t>
+  </si>
+  <si>
+    <t>Just a suggestion</t>
+  </si>
+  <si>
+    <t>The author is confused about a change from the code</t>
+  </si>
+  <si>
+    <t>suggestion?</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the impact of the change in the system</t>
   </si>
 </sst>
 </file>
@@ -3807,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B279" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3821,7 +3903,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3843,352 +3925,352 @@
     </row>
     <row r="3" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>803</v>
-      </c>
-      <c r="D3" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D4" t="s">
         <v>806</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D4" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D5" t="s">
         <v>809</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D5" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>813</v>
-      </c>
-      <c r="D6" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D7" t="s">
         <v>816</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D7" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D8" t="s">
         <v>818</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D8" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D9" t="s">
         <v>821</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D9" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>823</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D10" t="s">
         <v>824</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D10" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D11" t="s">
         <v>826</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D11" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>828</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>830</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D13" t="s">
         <v>831</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D13" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D14" t="s">
         <v>834</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D14" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>836</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D15" t="s">
         <v>837</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D15" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>839</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D16" t="s">
         <v>840</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D16" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>842</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D17" t="s">
         <v>843</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D17" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>845</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D18" t="s">
         <v>846</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D18" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>848</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D19" t="s">
         <v>849</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D19" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>851</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>853</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>853</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>855</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D21" t="s">
         <v>803</v>
-      </c>
-      <c r="D21" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>855</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D22" t="s">
         <v>856</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>858</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D22" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>858</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D23" t="s">
         <v>859</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D23" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>861</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D24" t="s">
         <v>862</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D24" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>864</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>866</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D25" t="s">
         <v>803</v>
-      </c>
-      <c r="D25" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>866</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>868</v>
-      </c>
       <c r="C26" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" t="s">
         <v>803</v>
-      </c>
-      <c r="D26" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>868</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>870</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4212,3596 +4294,4154 @@
       <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D31" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D33" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="132" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="198" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B71" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B72" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B73" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="C73" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="C74" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B78" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" ht="237.6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="C79" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="C112" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>167</v>
       </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="C113" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>169</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="C114" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>171</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="C115" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>173</v>
       </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="C116" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>175</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="C117" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>177</v>
       </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="C118" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>179</v>
       </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="C119" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>181</v>
       </c>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>185</v>
       </c>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>187</v>
       </c>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="C123" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>189</v>
       </c>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="C124" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>191</v>
       </c>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="C125" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>193</v>
       </c>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="C126" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>195</v>
       </c>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>197</v>
       </c>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>199</v>
       </c>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>201</v>
       </c>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>203</v>
       </c>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>205</v>
       </c>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>209</v>
       </c>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>211</v>
       </c>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>213</v>
       </c>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B137" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>217</v>
       </c>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="B138" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>219</v>
       </c>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B139" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="C139" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>221</v>
       </c>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B140" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>223</v>
       </c>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B141" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>225</v>
       </c>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="1:3" ht="184.8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B142" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>227</v>
       </c>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B143" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>229</v>
       </c>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="B144" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>231</v>
       </c>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="B145" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>235</v>
       </c>
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B147" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>237</v>
       </c>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B148" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C148" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>239</v>
       </c>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>241</v>
       </c>
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>243</v>
       </c>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B151" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>245</v>
       </c>
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>247</v>
       </c>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>249</v>
       </c>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="B154" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>251</v>
       </c>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="C155" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>253</v>
       </c>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B156" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="C156" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>255</v>
       </c>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C157" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="C158" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>259</v>
       </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="C159" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>261</v>
       </c>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>263</v>
       </c>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="C161" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>265</v>
       </c>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="C162" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>267</v>
       </c>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>269</v>
       </c>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C164" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>271</v>
       </c>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>273</v>
       </c>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>275</v>
       </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B167" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="C167" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>277</v>
       </c>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B168" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="C168" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>279</v>
       </c>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B169" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>281</v>
       </c>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="B170" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>283</v>
       </c>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="B171" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="C171" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>285</v>
       </c>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="C172" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>287</v>
       </c>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B173" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="C173" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>289</v>
       </c>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="C174" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>291</v>
       </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B175" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="C175" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>293</v>
       </c>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B176" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>295</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C177" s="2"/>
+      <c r="C177" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C179" s="2"/>
+      <c r="C179" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>301</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>303</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>305</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>307</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B183" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C183" s="2"/>
+      <c r="C183" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>309</v>
+      </c>
+      <c r="B184" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C184" s="2"/>
+      <c r="C184" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="185" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C185" s="2"/>
+      <c r="C185" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C186" s="2"/>
+      <c r="C186" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>315</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" s="2"/>
+      <c r="C187" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>317</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="2"/>
+      <c r="C188" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>319</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C189" s="2"/>
+      <c r="C189" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="190" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>321</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B190" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C190" s="2"/>
+      <c r="C190" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B191" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C191" s="2"/>
+      <c r="C191" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>325</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="193" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>327</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C193" s="2"/>
+      <c r="C193" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="194" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>329</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C194" s="2"/>
+      <c r="C194" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="195" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C195" s="2"/>
+      <c r="C195" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C196" s="2"/>
+      <c r="C196" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="197" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>335</v>
+      </c>
+      <c r="B197" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C197" s="2"/>
+      <c r="C197" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>337</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C198" s="2"/>
+      <c r="C198" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="199" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C199" s="2"/>
+      <c r="C199" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="200" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>341</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="201" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>343</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C201" s="2"/>
+      <c r="C201" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>345</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C202" s="2"/>
+      <c r="C202" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="203" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>347</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" s="2"/>
+      <c r="C203" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="204" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>349</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C204" s="2"/>
+      <c r="C204" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="205" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>351</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C205" s="2"/>
+      <c r="C205" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>353</v>
+      </c>
+      <c r="B206" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B206" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C206" s="2"/>
+      <c r="C206" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="207" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C207" s="2"/>
+      <c r="C207" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="208" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>357</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="C208" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>359</v>
       </c>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B209" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="C209" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>361</v>
       </c>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B210" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="C210" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>363</v>
       </c>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B211" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="C211" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>365</v>
       </c>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B212" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="C212" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>367</v>
       </c>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="B213" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="C213" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>369</v>
       </c>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B214" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="C214" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>371</v>
       </c>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="B215" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="C215" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>373</v>
       </c>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="B216" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="C216" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>375</v>
       </c>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B217" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C217" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>377</v>
       </c>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B218" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="C218" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>379</v>
       </c>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="B219" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C219" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>381</v>
       </c>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="B220" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="C220" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>383</v>
       </c>
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B221" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C221" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>385</v>
       </c>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B222" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="C222" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>387</v>
       </c>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="B223" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="C223" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>389</v>
       </c>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B224" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="C224" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>391</v>
       </c>
-      <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B225" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="C225" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>393</v>
       </c>
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B226" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="C226" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>395</v>
       </c>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B227" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>397</v>
       </c>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B228" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>399</v>
       </c>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B229" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="C229" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>401</v>
       </c>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B230" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="C230" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>403</v>
       </c>
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="1:3" ht="132" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="B231" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="C231" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>405</v>
       </c>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B232" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="C232" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>407</v>
       </c>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="B233" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="C233" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>409</v>
       </c>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B234" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="C234" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>411</v>
       </c>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B235" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="C235" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>413</v>
       </c>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="B236" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="C236" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>415</v>
       </c>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="B237" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="C237" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>417</v>
       </c>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B238" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="C238" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>419</v>
       </c>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="B239" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="C239" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>421</v>
       </c>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="B240" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="C240" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>423</v>
       </c>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B241" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="C241" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>425</v>
       </c>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B242" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="C242" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>427</v>
       </c>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B243" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="C243" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>429</v>
       </c>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="B244" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="C244" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>431</v>
       </c>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B245" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="C245" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>433</v>
       </c>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="B246" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C246" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>435</v>
       </c>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B247" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="C247" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>437</v>
       </c>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B248" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="C248" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>439</v>
       </c>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B249" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="C249" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>441</v>
       </c>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B250" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="C250" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>443</v>
       </c>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B251" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="C251" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>445</v>
       </c>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="B252" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="C252" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>447</v>
       </c>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B253" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="C253" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>449</v>
       </c>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B254" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="C254" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>451</v>
       </c>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B255" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="C255" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>453</v>
       </c>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="B256" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="C256" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>455</v>
       </c>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B257" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="C257" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>457</v>
       </c>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B258" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="C258" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>459</v>
       </c>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B259" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="C259" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>461</v>
       </c>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B260" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="C260" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>463</v>
       </c>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B261" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="C261" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>465</v>
       </c>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B262" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="C262" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>467</v>
       </c>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B263" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="C263" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>469</v>
       </c>
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B264" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="C264" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>471</v>
       </c>
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B265" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="C265" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>473</v>
       </c>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B266" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="C266" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>475</v>
       </c>
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B267" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="C267" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>477</v>
       </c>
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="B268" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="C268" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>479</v>
       </c>
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B269" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="C269" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>481</v>
       </c>
-      <c r="C269" s="2"/>
-    </row>
-    <row r="270" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B270" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="C270" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>483</v>
       </c>
-      <c r="C270" s="2"/>
-    </row>
-    <row r="271" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B271" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="C271" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>485</v>
       </c>
-      <c r="C271" s="2"/>
-    </row>
-    <row r="272" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B272" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C272" s="2"/>
+      <c r="C272" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="273" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>487</v>
+      </c>
+      <c r="B273" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C273" s="2"/>
+      <c r="C273" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>489</v>
+      </c>
+      <c r="B274" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C274" s="2"/>
+      <c r="C274" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>491</v>
+      </c>
+      <c r="B275" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C275" s="2"/>
+      <c r="C275" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="276" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>493</v>
+      </c>
+      <c r="B276" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C276" s="2"/>
+      <c r="C276" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="277" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>495</v>
+      </c>
+      <c r="B277" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C277" s="2"/>
+      <c r="C277" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="278" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>497</v>
+      </c>
+      <c r="B278" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C278" s="2"/>
+      <c r="C278" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="279" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>499</v>
+      </c>
+      <c r="B279" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C279" s="2"/>
+      <c r="C279" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="280" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>501</v>
+      </c>
+      <c r="B280" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>503</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="C281" s="2"/>
     </row>
     <row r="282" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>505</v>
+      </c>
+      <c r="B282" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>507</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>509</v>
+      </c>
+      <c r="B284" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>511</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>513</v>
+      </c>
+      <c r="B286" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>515</v>
+      </c>
+      <c r="B287" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="C287" s="2"/>
     </row>
     <row r="288" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>517</v>
+      </c>
+      <c r="B288" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>519</v>
+      </c>
+      <c r="B289" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>521</v>
+      </c>
+      <c r="B290" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>523</v>
+      </c>
+      <c r="B291" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>525</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>525</v>
+      </c>
+      <c r="B292" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>527</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>529</v>
+      </c>
+      <c r="B294" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>531</v>
+      </c>
+      <c r="B295" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="C295" s="2"/>
     </row>
     <row r="296" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>533</v>
+      </c>
+      <c r="B296" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C296" s="2"/>
     </row>
     <row r="297" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>535</v>
+      </c>
+      <c r="B297" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>537</v>
+      </c>
+      <c r="B298" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="C298" s="2"/>
     </row>
     <row r="299" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>539</v>
+      </c>
+      <c r="B299" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>541</v>
+      </c>
+      <c r="B300" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>543</v>
+      </c>
+      <c r="B301" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="C301" s="2"/>
     </row>
     <row r="302" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>545</v>
+      </c>
+      <c r="B302" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>547</v>
+      </c>
+      <c r="B303" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="C303" s="2"/>
     </row>
     <row r="304" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>549</v>
+      </c>
+      <c r="B304" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>551</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>553</v>
+      </c>
+      <c r="B306" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="C306" s="2"/>
     </row>
     <row r="307" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>555</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>557</v>
+      </c>
+      <c r="B308" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="C308" s="2"/>
     </row>
     <row r="309" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>559</v>
+      </c>
+      <c r="B309" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="C309" s="2"/>
     </row>
     <row r="310" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>561</v>
+      </c>
+      <c r="B310" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>563</v>
+      </c>
+      <c r="B311" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="C311" s="2"/>
     </row>
     <row r="312" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>565</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="C312" s="2"/>
     </row>
     <row r="313" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>567</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C313" s="2"/>
     </row>
     <row r="314" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>569</v>
+      </c>
+      <c r="B314" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="C314" s="2"/>
     </row>
     <row r="315" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>571</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>573</v>
       </c>
       <c r="C315" s="2"/>
     </row>
     <row r="316" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>573</v>
+      </c>
+      <c r="B316" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="C316" s="2"/>
     </row>
     <row r="317" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>575</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="C317" s="2"/>
     </row>
     <row r="318" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>577</v>
+      </c>
+      <c r="B318" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="C318" s="2"/>
     </row>
     <row r="319" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>579</v>
+      </c>
+      <c r="B319" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>581</v>
       </c>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>581</v>
+      </c>
+      <c r="B320" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="C320" s="2"/>
     </row>
     <row r="321" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>583</v>
+      </c>
+      <c r="B321" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>585</v>
+      </c>
+      <c r="B322" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="C322" s="2"/>
     </row>
     <row r="323" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>587</v>
+      </c>
+      <c r="B323" s="4" t="s">
         <v>588</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="C323" s="2"/>
     </row>
     <row r="324" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>589</v>
+      </c>
+      <c r="B324" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>591</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="C325" s="2"/>
     </row>
     <row r="326" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>593</v>
+      </c>
+      <c r="B326" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>595</v>
+      </c>
+      <c r="B327" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="C327" s="2"/>
     </row>
     <row r="328" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>597</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>598</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>599</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>601</v>
+      </c>
+      <c r="B330" s="4" t="s">
         <v>602</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>603</v>
       </c>
       <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>603</v>
+      </c>
+      <c r="B331" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>605</v>
+      </c>
+      <c r="B332" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="C332" s="2"/>
     </row>
     <row r="333" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>607</v>
+      </c>
+      <c r="B333" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>609</v>
+      </c>
+      <c r="B334" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="C334" s="2"/>
     </row>
     <row r="335" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>611</v>
+      </c>
+      <c r="B335" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>613</v>
+      </c>
+      <c r="B336" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="C336" s="2"/>
     </row>
     <row r="337" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>615</v>
+      </c>
+      <c r="B337" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>617</v>
+      </c>
+      <c r="B338" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="C338" s="2"/>
     </row>
     <row r="339" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>619</v>
+      </c>
+      <c r="B339" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>621</v>
+      </c>
+      <c r="B340" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="C340" s="2"/>
     </row>
     <row r="341" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>623</v>
+      </c>
+      <c r="B341" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="C341" s="2"/>
     </row>
     <row r="342" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>625</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C342" s="2"/>
     </row>
     <row r="343" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>627</v>
+      </c>
+      <c r="B343" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="C343" s="2"/>
     </row>
     <row r="344" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>629</v>
+      </c>
+      <c r="B344" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>631</v>
       </c>
       <c r="C344" s="2"/>
     </row>
     <row r="345" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>631</v>
+      </c>
+      <c r="B345" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="C345" s="2"/>
     </row>
     <row r="346" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>633</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="C346" s="2"/>
     </row>
     <row r="347" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>635</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="C347" s="2"/>
     </row>
     <row r="348" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>637</v>
+      </c>
+      <c r="B348" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="C348" s="2"/>
     </row>
     <row r="349" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>639</v>
+      </c>
+      <c r="B349" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="C349" s="2"/>
     </row>
     <row r="350" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>641</v>
+      </c>
+      <c r="B350" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>643</v>
       </c>
       <c r="C350" s="2"/>
     </row>
     <row r="351" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>643</v>
+      </c>
+      <c r="B351" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="C351" s="2"/>
     </row>
     <row r="352" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>645</v>
+      </c>
+      <c r="B352" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>647</v>
       </c>
       <c r="C352" s="2"/>
     </row>
     <row r="353" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>647</v>
+      </c>
+      <c r="B353" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="C353" s="2"/>
     </row>
     <row r="354" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>649</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="C354" s="2"/>
     </row>
     <row r="355" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>651</v>
+      </c>
+      <c r="B355" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="C355" s="2"/>
     </row>
     <row r="356" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>653</v>
+      </c>
+      <c r="B356" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="C356" s="2"/>
     </row>
     <row r="357" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>655</v>
+      </c>
+      <c r="B357" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="C357" s="2"/>
     </row>
     <row r="358" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>657</v>
+      </c>
+      <c r="B358" s="4" t="s">
         <v>658</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>659</v>
       </c>
       <c r="C358" s="2"/>
     </row>
     <row r="359" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>659</v>
+      </c>
+      <c r="B359" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="C359" s="2"/>
     </row>
     <row r="360" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>661</v>
+      </c>
+      <c r="B360" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>663</v>
       </c>
       <c r="C360" s="2"/>
     </row>
     <row r="361" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>663</v>
+      </c>
+      <c r="B361" s="4" t="s">
         <v>664</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="C361" s="2"/>
     </row>
     <row r="362" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>665</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="C362" s="2"/>
     </row>
     <row r="363" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>667</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="C363" s="2"/>
     </row>
     <row r="364" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>669</v>
+      </c>
+      <c r="B364" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="C364" s="2"/>
     </row>
     <row r="365" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>671</v>
+      </c>
+      <c r="B365" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="C365" s="2"/>
     </row>
     <row r="366" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>673</v>
+      </c>
+      <c r="B366" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="C366" s="2"/>
     </row>
     <row r="367" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>675</v>
+      </c>
+      <c r="B367" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="C367" s="2"/>
     </row>
     <row r="368" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>677</v>
+      </c>
+      <c r="B368" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="C368" s="2"/>
     </row>
     <row r="369" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>679</v>
+      </c>
+      <c r="B369" s="4" t="s">
         <v>680</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>681</v>
       </c>
       <c r="C369" s="2"/>
     </row>
     <row r="370" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>681</v>
+      </c>
+      <c r="B370" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="C370" s="2"/>
     </row>
     <row r="371" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>683</v>
+      </c>
+      <c r="B371" s="4" t="s">
         <v>684</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>685</v>
       </c>
       <c r="C371" s="2"/>
     </row>
     <row r="372" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>685</v>
+      </c>
+      <c r="B372" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="C372" s="2"/>
     </row>
     <row r="373" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>687</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="C373" s="2"/>
     </row>
     <row r="374" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>689</v>
+      </c>
+      <c r="B374" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="C374" s="2"/>
     </row>
     <row r="375" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>691</v>
+      </c>
+      <c r="B375" s="4" t="s">
         <v>692</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>693</v>
       </c>
       <c r="C375" s="2"/>
     </row>
     <row r="376" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>693</v>
+      </c>
+      <c r="B376" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="C376" s="2"/>
     </row>
     <row r="377" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>695</v>
+      </c>
+      <c r="B377" s="4" t="s">
         <v>696</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>697</v>
       </c>
       <c r="C377" s="2"/>
     </row>
     <row r="378" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>697</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="C378" s="2"/>
     </row>
     <row r="379" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>699</v>
+      </c>
+      <c r="B379" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>701</v>
       </c>
       <c r="C379" s="2"/>
     </row>
     <row r="380" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C380" s="2"/>
     </row>
     <row r="381" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>702</v>
+      </c>
+      <c r="B381" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="C381" s="2"/>
     </row>
     <row r="382" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>704</v>
+      </c>
+      <c r="B382" s="4" t="s">
         <v>705</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>706</v>
       </c>
       <c r="C382" s="2"/>
     </row>
     <row r="383" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>706</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>708</v>
       </c>
       <c r="C383" s="2"/>
     </row>
     <row r="384" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>708</v>
+      </c>
+      <c r="B384" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>710</v>
       </c>
       <c r="C384" s="2"/>
     </row>
     <row r="385" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>710</v>
+      </c>
+      <c r="B385" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="C385" s="2"/>
     </row>
     <row r="386" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>712</v>
+      </c>
+      <c r="B386" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="C386" s="2"/>
     </row>
     <row r="387" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>714</v>
+      </c>
+      <c r="B387" s="4" t="s">
         <v>715</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="C387" s="2"/>
     </row>
     <row r="388" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>716</v>
+      </c>
+      <c r="B388" s="4" t="s">
         <v>717</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>718</v>
       </c>
       <c r="C388" s="2"/>
     </row>
     <row r="389" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>718</v>
+      </c>
+      <c r="B389" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="C389" s="2"/>
     </row>
     <row r="390" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>720</v>
+      </c>
+      <c r="B390" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="C390" s="2"/>
     </row>
     <row r="391" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>722</v>
+      </c>
+      <c r="B391" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="C391" s="2"/>
     </row>
     <row r="392" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>724</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>726</v>
       </c>
       <c r="C392" s="2"/>
     </row>
     <row r="393" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>726</v>
+      </c>
+      <c r="B393" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="C393" s="2"/>
     </row>
     <row r="394" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>728</v>
+      </c>
+      <c r="B394" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="C394" s="2"/>
     </row>
     <row r="395" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C395" s="2"/>
     </row>
     <row r="396" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>731</v>
+      </c>
+      <c r="B396" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="C396" s="2"/>
     </row>
     <row r="397" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>733</v>
+      </c>
+      <c r="B397" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="C397" s="2"/>
     </row>
     <row r="398" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>735</v>
+      </c>
+      <c r="B398" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>737</v>
       </c>
       <c r="C398" s="2"/>
     </row>
     <row r="399" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>737</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>739</v>
       </c>
       <c r="C399" s="2"/>
     </row>
     <row r="400" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>739</v>
+      </c>
+      <c r="B400" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="B400" s="4" t="s">
-        <v>741</v>
       </c>
       <c r="C400" s="2"/>
     </row>
     <row r="401" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>741</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>743</v>
       </c>
       <c r="C401" s="2"/>
     </row>
     <row r="402" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>743</v>
+      </c>
+      <c r="B402" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="C402" s="2"/>
     </row>
     <row r="403" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>745</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="C403" s="2"/>
     </row>
     <row r="404" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>747</v>
+      </c>
+      <c r="B404" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="C404" s="2"/>
     </row>
     <row r="405" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>749</v>
+      </c>
+      <c r="B405" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="C405" s="2"/>
     </row>
     <row r="406" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>751</v>
+      </c>
+      <c r="B406" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="C406" s="2"/>
     </row>
     <row r="407" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>753</v>
+      </c>
+      <c r="B407" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>755</v>
       </c>
       <c r="C407" s="2"/>
     </row>
     <row r="408" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>755</v>
+      </c>
+      <c r="B408" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="C408" s="2"/>
     </row>
     <row r="409" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>757</v>
+      </c>
+      <c r="B409" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="C409" s="2"/>
     </row>
     <row r="410" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>759</v>
+      </c>
+      <c r="B410" s="4" t="s">
         <v>760</v>
-      </c>
-      <c r="B410" s="4" t="s">
-        <v>761</v>
       </c>
       <c r="C410" s="2"/>
     </row>
     <row r="411" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>761</v>
+      </c>
+      <c r="B411" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>763</v>
       </c>
       <c r="C411" s="2"/>
     </row>
     <row r="412" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>763</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="C412" s="2"/>
     </row>
     <row r="413" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>765</v>
+      </c>
+      <c r="B413" s="4" t="s">
         <v>766</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>767</v>
       </c>
       <c r="C413" s="2"/>
     </row>
     <row r="414" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>767</v>
+      </c>
+      <c r="B414" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="C414" s="2"/>
     </row>
     <row r="415" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>769</v>
+      </c>
+      <c r="B415" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="C415" s="2"/>
     </row>
     <row r="416" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>771</v>
+      </c>
+      <c r="B416" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>773</v>
       </c>
       <c r="C416" s="2"/>
     </row>
     <row r="417" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>773</v>
+      </c>
+      <c r="B417" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="B417" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="C417" s="2"/>
     </row>
     <row r="418" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>775</v>
+      </c>
+      <c r="B418" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="B418" s="4" t="s">
-        <v>777</v>
       </c>
       <c r="C418" s="2"/>
     </row>
     <row r="419" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>777</v>
+      </c>
+      <c r="B419" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="B419" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="C419" s="2"/>
     </row>
     <row r="420" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>779</v>
+      </c>
+      <c r="B420" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>781</v>
       </c>
       <c r="C420" s="2"/>
     </row>
     <row r="421" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>781</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>782</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>783</v>
       </c>
       <c r="C421" s="2"/>
     </row>
     <row r="422" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>783</v>
+      </c>
+      <c r="B422" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="C422" s="2"/>
     </row>
     <row r="423" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>785</v>
+      </c>
+      <c r="B423" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="C423" s="2"/>
     </row>
     <row r="424" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>787</v>
+      </c>
+      <c r="B424" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="C424" s="2"/>
     </row>
     <row r="425" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>789</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>791</v>
       </c>
       <c r="C425" s="2"/>
     </row>
     <row r="426" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>791</v>
+      </c>
+      <c r="B426" s="4" t="s">
         <v>792</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>793</v>
       </c>
       <c r="C426" s="2"/>
     </row>
     <row r="427" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>793</v>
+      </c>
+      <c r="B427" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>795</v>
       </c>
       <c r="C427" s="2"/>
     </row>
     <row r="428" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>795</v>
+      </c>
+      <c r="B428" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>797</v>
       </c>
       <c r="C428" s="2"/>
     </row>
     <row r="429" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>797</v>
+      </c>
+      <c r="B429" s="4" t="s">
         <v>798</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>799</v>
       </c>
       <c r="C429" s="2"/>
     </row>
     <row r="430" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>799</v>
+      </c>
+      <c r="B430" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="C430" s="2"/>
     </row>

--- a/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
+++ b/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="904">
   <si>
     <t>id</t>
   </si>
@@ -3398,9 +3398,6 @@
     <t>The author is uncertain about the problem.</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Patch Set 3:
 David, could you PTAL </t>
@@ -3470,6 +3467,30 @@
   </si>
   <si>
     <t>The author is uncertain about the impact of the change in the system</t>
+  </si>
+  <si>
+    <t>[???]</t>
+  </si>
+  <si>
+    <t>Just an opinion</t>
+  </si>
+  <si>
+    <t>The author is confused about the lib inclusion</t>
+  </si>
+  <si>
+    <t>The author is confused why the developer did not imported the code</t>
+  </si>
+  <si>
+    <t>The author is confused about the wrapper</t>
+  </si>
+  <si>
+    <t>Totattly confusion from the author about the change/system behavior</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the system config</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the build's fail</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3611,327 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3889,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B279" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView tabSelected="1" topLeftCell="B335" workbookViewId="0">
+      <selection activeCell="D341" sqref="D341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4675,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4367,7 +4708,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4444,7 +4785,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4474,7 +4815,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>877</v>
@@ -4586,8 +4927,8 @@
       <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>879</v>
+      <c r="C57" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
@@ -4641,8 +4982,8 @@
       <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>879</v>
+      <c r="C62" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="198" x14ac:dyDescent="0.25">
@@ -4700,7 +5041,7 @@
         <v>875</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4802,7 +5143,7 @@
         <v>875</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4834,8 +5175,8 @@
       <c r="B79" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>879</v>
+      <c r="C79" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -4845,8 +5186,8 @@
       <c r="B80" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>879</v>
+      <c r="C80" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
@@ -5285,8 +5626,8 @@
       <c r="B120" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>879</v>
+      <c r="C120" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -5296,8 +5637,8 @@
       <c r="B121" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>879</v>
+      <c r="C121" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -5322,7 +5663,7 @@
         <v>875</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -5413,7 +5754,7 @@
         <v>875</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -5460,7 +5801,7 @@
         <v>877</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
@@ -5518,7 +5859,7 @@
         <v>875</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
@@ -5532,7 +5873,7 @@
         <v>875</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
@@ -5623,7 +5964,7 @@
         <v>877</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -5857,7 +6198,7 @@
         <v>875</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6021,8 +6362,8 @@
       <c r="B185" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>879</v>
+      <c r="C185" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -6054,8 +6395,8 @@
       <c r="B188" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="7" t="s">
-        <v>879</v>
+      <c r="C188" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -6109,8 +6450,8 @@
       <c r="B193" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C193" s="7" t="s">
-        <v>879</v>
+      <c r="C193" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="66" x14ac:dyDescent="0.25">
@@ -6219,8 +6560,8 @@
       <c r="B203" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>879</v>
+      <c r="C203" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -6333,7 +6674,7 @@
         <v>875</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
@@ -6358,7 +6699,7 @@
         <v>875</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6379,8 +6720,8 @@
       <c r="B217" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C217" s="7" t="s">
-        <v>879</v>
+      <c r="C217" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6390,8 +6731,8 @@
       <c r="B218" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C218" s="7" t="s">
-        <v>879</v>
+      <c r="C218" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
@@ -6581,7 +6922,7 @@
         <v>875</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
@@ -6738,7 +7079,7 @@
         <v>875</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
@@ -6763,7 +7104,7 @@
         <v>875</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6799,7 +7140,7 @@
         <v>877</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
@@ -6835,7 +7176,7 @@
         <v>875</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
@@ -6856,11 +7197,11 @@
       <c r="B259" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>879</v>
+      <c r="C259" s="2" t="s">
+        <v>896</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6962,7 +7303,7 @@
         <v>875</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="66" x14ac:dyDescent="0.25">
@@ -6983,8 +7324,8 @@
       <c r="B270" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C270" s="7" t="s">
-        <v>879</v>
+      <c r="C270" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
@@ -7009,7 +7350,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>487</v>
       </c>
@@ -7020,7 +7361,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>489</v>
       </c>
@@ -7031,7 +7372,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>491</v>
       </c>
@@ -7042,7 +7383,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>493</v>
       </c>
@@ -7053,7 +7394,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>495</v>
       </c>
@@ -7064,7 +7405,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>497</v>
       </c>
@@ -7075,7 +7416,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>499</v>
       </c>
@@ -7086,556 +7427,702 @@
         <v>877</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>501</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C280" s="2"/>
-    </row>
-    <row r="281" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C280" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>503</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C281" s="2"/>
-    </row>
-    <row r="282" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C281" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D281" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>505</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C282" s="2"/>
-    </row>
-    <row r="283" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C282" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>507</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C283" s="2"/>
-    </row>
-    <row r="284" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C283" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>509</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C284" s="2"/>
-    </row>
-    <row r="285" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C284" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>511</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C285" s="2"/>
-    </row>
-    <row r="286" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C285" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D285" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>513</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="C286" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>515</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C287" s="2"/>
-    </row>
-    <row r="288" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C287" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>517</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C288" s="2"/>
-    </row>
-    <row r="289" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C288" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>519</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C289" s="2"/>
-    </row>
-    <row r="290" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C289" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D289" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>521</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C290" s="2"/>
-    </row>
-    <row r="291" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C290" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>523</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C291" s="2"/>
-    </row>
-    <row r="292" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C291" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>525</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C292" s="2"/>
-    </row>
-    <row r="293" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C292" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>527</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C293" s="2"/>
-    </row>
-    <row r="294" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C293" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>529</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C294" s="2"/>
-    </row>
-    <row r="295" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C294" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>531</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C295" s="2"/>
-    </row>
-    <row r="296" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C295" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>533</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C296" s="2"/>
-    </row>
-    <row r="297" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C296" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>535</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C297" s="2"/>
-    </row>
-    <row r="298" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C297" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>537</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C298" s="2"/>
-    </row>
-    <row r="299" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C298" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>539</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C299" s="2"/>
-    </row>
-    <row r="300" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C299" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>541</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C300" s="2"/>
-    </row>
-    <row r="301" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C300" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>543</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="C301" s="2"/>
-    </row>
-    <row r="302" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C301" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>545</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C302" s="2"/>
-    </row>
-    <row r="303" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C302" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>547</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C303" s="2"/>
-    </row>
-    <row r="304" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C303" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>549</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C304" s="2"/>
-    </row>
-    <row r="305" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C304" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>551</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="C305" s="2"/>
-    </row>
-    <row r="306" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C305" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>553</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C306" s="2"/>
-    </row>
-    <row r="307" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="C306" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>555</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="C307" s="2"/>
-    </row>
-    <row r="308" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C307" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>557</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="C308" s="2"/>
-    </row>
-    <row r="309" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C308" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>559</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C309" s="2"/>
-    </row>
-    <row r="310" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C309" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D309" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>561</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="C310" s="2"/>
-    </row>
-    <row r="311" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C310" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>563</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="C311" s="2"/>
-    </row>
-    <row r="312" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C311" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D311" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>565</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C312" s="2"/>
-    </row>
-    <row r="313" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C312" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>567</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="C313" s="2"/>
-    </row>
-    <row r="314" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C313" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>569</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C314" s="2"/>
-    </row>
-    <row r="315" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C314" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>571</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C315" s="2"/>
-    </row>
-    <row r="316" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C315" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>573</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C316" s="2"/>
-    </row>
-    <row r="317" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C316" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>575</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C317" s="2"/>
-    </row>
-    <row r="318" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C317" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>577</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C318" s="2"/>
-    </row>
-    <row r="319" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C318" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>579</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C319" s="2"/>
-    </row>
-    <row r="320" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C319" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>581</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C320" s="2"/>
-    </row>
-    <row r="321" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C320" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>583</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C321" s="2"/>
-    </row>
-    <row r="322" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C321" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>585</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="C322" s="2"/>
-    </row>
-    <row r="323" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C322" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>587</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C323" s="2"/>
-    </row>
-    <row r="324" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C323" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>589</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C324" s="2"/>
-    </row>
-    <row r="325" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C324" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>591</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C325" s="2"/>
-    </row>
-    <row r="326" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C325" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D325" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>593</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C326" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>595</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C327" s="2"/>
-    </row>
-    <row r="328" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C327" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>597</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C328" s="2"/>
-    </row>
-    <row r="329" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C328" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>599</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C329" s="2"/>
-    </row>
-    <row r="330" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C329" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>601</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C330" s="2"/>
-    </row>
-    <row r="331" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C330" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>603</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="C331" s="2"/>
-    </row>
-    <row r="332" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C331" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>605</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C332" s="2"/>
-    </row>
-    <row r="333" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C332" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>607</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C333" s="2"/>
-    </row>
-    <row r="334" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C333" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D333" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>609</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C334" s="2"/>
-    </row>
-    <row r="335" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C334" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>611</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="C335" s="2"/>
-    </row>
-    <row r="336" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C335" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>613</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C336" s="2"/>
-    </row>
-    <row r="337" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C336" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>615</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="C337" s="2"/>
-    </row>
-    <row r="338" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C337" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>617</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C338" s="2"/>
-    </row>
-    <row r="339" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C338" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>619</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C339" s="2"/>
-    </row>
-    <row r="340" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C339" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>621</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="C340" s="2"/>
-    </row>
-    <row r="341" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C340" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D340" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>623</v>
       </c>
@@ -7644,7 +8131,7 @@
       </c>
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>625</v>
       </c>
@@ -7653,7 +8140,7 @@
       </c>
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>627</v>
       </c>
@@ -7662,7 +8149,7 @@
       </c>
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>629</v>
       </c>
@@ -7671,7 +8158,7 @@
       </c>
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>631</v>
       </c>
@@ -7680,7 +8167,7 @@
       </c>
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>633</v>
       </c>
@@ -7689,7 +8176,7 @@
       </c>
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>635</v>
       </c>
@@ -7698,7 +8185,7 @@
       </c>
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>637</v>
       </c>
@@ -7707,7 +8194,7 @@
       </c>
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>639</v>
       </c>
@@ -7716,7 +8203,7 @@
       </c>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>641</v>
       </c>
@@ -7725,7 +8212,7 @@
       </c>
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>643</v>
       </c>
@@ -7734,7 +8221,7 @@
       </c>
       <c r="C351" s="2"/>
     </row>
-    <row r="352" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>645</v>
       </c>
@@ -8450,10 +8937,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C27 B1 B28:B30 B431:B1048576 C31:C430">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="33" priority="1" stopIfTrue="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="32" priority="2" stopIfTrue="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
+++ b/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="915">
   <si>
     <t>id</t>
   </si>
@@ -3491,6 +3491,39 @@
   </si>
   <si>
     <t>The author is uncertain about the build's fail</t>
+  </si>
+  <si>
+    <t>The author is confused about the code</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the usefulness of a part of the code</t>
+  </si>
+  <si>
+    <t>The author is uncertain about how to proceed with the code and also how it works</t>
+  </si>
+  <si>
+    <t>The author is uncertain about how something disappeared</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the need of sanity checks</t>
+  </si>
+  <si>
+    <t>The author is confused about changes</t>
+  </si>
+  <si>
+    <t>The author is confused about the change's goal</t>
+  </si>
+  <si>
+    <t>The authos is confused about the chage's context</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the need of opening dex files</t>
+  </si>
+  <si>
+    <t>The author is uncertain about his code</t>
+  </si>
+  <si>
+    <t>The author is uncertain abou the need of some libs</t>
   </si>
 </sst>
 </file>
@@ -3611,327 +3644,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4230,8 +3943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B335" workbookViewId="0">
-      <selection activeCell="D341" sqref="D341"/>
+    <sheetView tabSelected="1" topLeftCell="B380" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4239,7 +3952,7 @@
     <col min="1" max="1" width="43.44140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="103.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8129,7 +7842,9 @@
       <c r="B341" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C341" s="2"/>
+      <c r="C341" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="342" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
@@ -8138,7 +7853,9 @@
       <c r="B342" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C342" s="2"/>
+      <c r="C342" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="343" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
@@ -8147,7 +7864,12 @@
       <c r="B343" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="C343" s="2"/>
+      <c r="C343" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D343" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="344" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -8156,7 +7878,12 @@
       <c r="B344" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C344" s="2"/>
+      <c r="C344" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D344" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="345" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -8165,7 +7892,9 @@
       <c r="B345" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C345" s="2"/>
+      <c r="C345" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="346" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -8174,7 +7903,9 @@
       <c r="B346" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C346" s="2"/>
+      <c r="C346" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="347" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -8183,7 +7914,9 @@
       <c r="B347" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="C347" s="2"/>
+      <c r="C347" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="348" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -8192,7 +7925,9 @@
       <c r="B348" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C348" s="2"/>
+      <c r="C348" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -8201,7 +7936,9 @@
       <c r="B349" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C349" s="2"/>
+      <c r="C349" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="350" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -8210,7 +7947,12 @@
       <c r="B350" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="C350" s="2"/>
+      <c r="C350" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D350" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="351" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -8219,7 +7961,9 @@
       <c r="B351" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="C351" s="2"/>
+      <c r="C351" s="2" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="352" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -8228,719 +7972,913 @@
       <c r="B352" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C352" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>647</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C353" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>649</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C354" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>651</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C355" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>653</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C356" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>655</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C357" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>657</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C358" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>659</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C359" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>661</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C360" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>663</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C361" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>665</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C362" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>667</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="C363" s="2"/>
-    </row>
-    <row r="364" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C363" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>669</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C364" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>671</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="C365" s="2"/>
-    </row>
-    <row r="366" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C365" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D365" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>673</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C366" s="2"/>
-    </row>
-    <row r="367" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C366" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>675</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C367" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>677</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C368" s="2"/>
-    </row>
-    <row r="369" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C368" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D368" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>679</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C369" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>681</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C370" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>683</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C371" s="2"/>
-    </row>
-    <row r="372" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C371" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>685</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C372" s="2"/>
-    </row>
-    <row r="373" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C372" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D372" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>687</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C373" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>689</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="C374" s="2"/>
-    </row>
-    <row r="375" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C374" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>691</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C375" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>693</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C376" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>695</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C377" s="2"/>
-    </row>
-    <row r="378" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C377" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>697</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C378" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>699</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="C379" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>701</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C380" s="2"/>
-    </row>
-    <row r="381" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C380" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>702</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C381" s="2"/>
-    </row>
-    <row r="382" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C381" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>704</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C382" s="2"/>
-    </row>
-    <row r="383" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C382" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>706</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="C383" s="2"/>
-    </row>
-    <row r="384" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C383" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>708</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C384" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>710</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C385" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>712</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C386" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>714</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C387" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>716</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C388" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>718</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C389" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>720</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C390" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D390" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>722</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C391" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>724</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C392" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>726</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C393" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>728</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C394" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>730</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C395" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>731</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C396" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>733</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C397" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>735</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C398" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>737</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C399" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D399" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>739</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C400" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>741</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C401" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>743</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C402" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>745</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="C403" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>747</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C404" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D404" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>749</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="C405" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>751</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C406" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>753</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C407" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>755</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C408" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>757</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C409" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D409" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>759</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C410" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>761</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C411" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>763</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C412" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>765</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C413" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>767</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C414" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D414" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>769</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C415" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D415" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>771</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C416" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>773</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C417" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>775</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C418" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D418" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>777</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C419" s="2"/>
-    </row>
-    <row r="420" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C419" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>779</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="C420" s="2"/>
-    </row>
-    <row r="421" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C420" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>781</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="C421" s="2"/>
-    </row>
-    <row r="422" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C421" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>783</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C422" s="2"/>
-    </row>
-    <row r="423" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C422" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D422" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>785</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C423" s="2"/>
-    </row>
-    <row r="424" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C423" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>787</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="C424" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>789</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C425" s="2"/>
-    </row>
-    <row r="426" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C425" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>791</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C426" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>793</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C427" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>795</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C428" s="2"/>
-    </row>
-    <row r="429" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="C428" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>797</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="C429" s="2"/>
-    </row>
-    <row r="430" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="C429" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>799</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C430" s="2"/>
+      <c r="C430" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D430" t="s">
+        <v>908</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C27 B1 B28:B30 B431:B1048576 C31:C430">
-    <cfRule type="containsText" dxfId="33" priority="1" stopIfTrue="1" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" stopIfTrue="1" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="0" priority="2" stopIfTrue="1" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",B1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
+++ b/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="854">
   <si>
     <t>id</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>reasoning</t>
-  </si>
-  <si>
-    <t>comment</t>
   </si>
   <si>
     <t>ddbf143d8502f29ebb13df964ee19ff16608ee63</t>
@@ -3088,302 +3085,6 @@
     <t>Patch Set 2:
 (3 comments)
 Do we want sanity checks for passed in buffers to make sure they are actually the right size?</t>
-  </si>
-  <si>
-    <t>54daddb4da7f824d335a308494134c15247f9ffa</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>It is just an expression of a request.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-Hi, Elliot,
-This patch still needs a +2, could you help me review this?
-Thanks,
-Dehao</t>
-  </si>
-  <si>
-    <t>11e56d224d60cd029438ceafb2fb4117742f9e2e</t>
-  </si>
-  <si>
-    <t>It just an expression of a suggestion.</t>
-  </si>
-  <si>
-    <t>Patch Set 1: Code-Review+2
-Though you might also check if c/195806 is sufficient.</t>
-  </si>
-  <si>
-    <t>85cdfe15ad69272b2877f7be191acfaf7d8351ed</t>
-  </si>
-  <si>
-    <t>The author is not confused, he is trying to be clearer.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-For clarification, what I really meant is "... if the input data is spread out over 2 VM pages ..."</t>
-  </si>
-  <si>
-    <t>b9dc532deba0c1ede3f3740fd042b1d1dd98f4e7</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>The author is confused about the code.</t>
-  </si>
-  <si>
-    <t>Patch Set 3:
-Sorry I don't have the ToT. Thanks for confirm.
-But isn't goBack and goForward history navigation? Maybe I mis-understand it.</t>
-  </si>
-  <si>
-    <t>022afc4e05ff239d668bfa8f7f86f481d640d40a</t>
-  </si>
-  <si>
-    <t>The author is saying the it is still a "work in progress".</t>
-  </si>
-  <si>
-    <t>8b914b4a24674cdf1ba7deb6d390876c1ab2e779</t>
-  </si>
-  <si>
-    <t>The authos explicit says he is uncertain how a library works.</t>
-  </si>
-  <si>
-    <t>Patch Set 2:
-How does exporting a resource in a library work? Is this the point of the AAR file? (Sorry, I actually don't have experience with this!)</t>
-  </si>
-  <si>
-    <t>eb45b039eaf696cdfb0544f0bc06dfb77da34e08</t>
-  </si>
-  <si>
-    <t>It is just an expression of a suggestion.</t>
-  </si>
-  <si>
-    <t>Patch Set 10:
-&gt; Thanks Nicolas; I've enabled floating-point constant propagation
- &gt; only when the C++ `float` and `double` types behave as IEEE 754
- &gt; single- and double precision types in PS10; PTAL.
-BTW we might want to do a similar check/warning in the interpreter as well.</t>
-  </si>
-  <si>
-    <t>f64f0e270df51853e0d8701d26a4d6729744ac5e</t>
-  </si>
-  <si>
-    <t>The authos is uncertain about some part of the code.</t>
-  </si>
-  <si>
-    <t>08b1fcb167f68570688f6339aed5683ec0e710f3</t>
-  </si>
-  <si>
-    <t>The authos is requesting someone else to check the patch set.</t>
-  </si>
-  <si>
-    <t>Patch Set 2:
-Rebased on N. 
-Hi Dongfang, could you kindly confirm the requirements and review the patch?</t>
-  </si>
-  <si>
-    <t>8940a1cf1427432263188be09b16ef2656b4dd43</t>
-  </si>
-  <si>
-    <t>Patch Set 6: Verified+1
-Seems to work</t>
-  </si>
-  <si>
-    <t>d059ca174f66144edbb8034999dffa97603e449d</t>
-  </si>
-  <si>
-    <t>It is just an expression of a opinion.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-(2 comments)
-I still need to test this pre-rebase before being confident in it, but this seems to allow bionic to be built.</t>
-  </si>
-  <si>
-    <t>20dc2806adca2778812dd197994544a7922bd0a6</t>
-  </si>
-  <si>
-    <t>The author explicts express confusion about the patch set.</t>
-  </si>
-  <si>
-    <t>Patch Set 1: Code-Review+1
-Not really sure what this does, but screenrecord worked before... so +1.</t>
-  </si>
-  <si>
-    <t>b7562bf1a8583b362c4978fbd3767c3be33e6ac7</t>
-  </si>
-  <si>
-    <t>Uncertainty about the need of the change.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-Did we really need this change?</t>
-  </si>
-  <si>
-    <t>f44158a2089925ed60ea8b8c4b082a266799e6ae</t>
-  </si>
-  <si>
-    <t>The authos is not certain of other places for the checker.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-BTW, there may be other places where Checker annotations test methods implemented in Smali.</t>
-  </si>
-  <si>
-    <t>92d9185d91c1386e65afd5f03776468ac1448400</t>
-  </si>
-  <si>
-    <t>Direct question for the patch set author.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-Bug number is missing. Also, did you actually confirm this causes the problem?</t>
-  </si>
-  <si>
-    <t>35677810d1f622ca3dcd67531b3cf0cdff792a47</t>
-  </si>
-  <si>
-    <t>The author is confused about everything in the code review.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-Robert, this make sense to you?  (I don't really understand from the commit message and comment, but I don't really know this code either...)</t>
-  </si>
-  <si>
-    <t>2c76a4cd745ee166310eb72c276ba9d8351db5a6</t>
-  </si>
-  <si>
-    <t>It is just an expression of opinion.</t>
-  </si>
-  <si>
-    <t>Patch Set 1: Code-Review-2
-Seems to be already applied.  Abandon?</t>
-  </si>
-  <si>
-    <t>a6cfd79910e7a91f876db7eb418d056865c4d7bb</t>
-  </si>
-  <si>
-    <t>Patch Set 4:
-Include guards in C files are weird... Could use #pragma clang diagnostic instead: http://clang.llvm.org/docs/UsersManual.html#controlling-diagnostics-via-pragmas</t>
-  </si>
-  <si>
-    <t>2874c13ab992843499d770d9cf3b5ccacffcd26b</t>
-  </si>
-  <si>
-    <t>Patch Set 2:
-Yu, could you try internal branches</t>
-  </si>
-  <si>
-    <t>8e8a8745de34e382562600b8f5381fcf48660974</t>
-  </si>
-  <si>
-    <t>The author is uncertain about some Ubuntu configuration.</t>
-  </si>
-  <si>
-    <t>Patch Set 3: Code-Review+1
-Worked for me on Ubuntu 14.04.  Did not work for me on Fedora 20, but that's not a supported build host OS.  Seems that Ubuntu has a libpcre.so.3 that is being picked up as a dependency for your prebuilt libselinux.so.1 and Fedora only has libpcre.so.1, not sure why/if they truly differ in ABI.</t>
-  </si>
-  <si>
-    <t>92627123be5fa6d03b86fd543a22a40240f992b4</t>
-  </si>
-  <si>
-    <t>The author express he was confused, that's why he needed an explanation.</t>
-  </si>
-  <si>
-    <t>Patch Set 1:
-&gt; This is a misfeature of gcc - C++ standard requires it to not
- &gt; implement strings with reference counting, but GCC still does it
- &gt; that way.
- &gt; As we modify string data directly, not through the std::string's
- &gt; accessors, the implementation can't catch that modification and
- &gt; perform copy on write.
-Thank you Yurii for your explanation! I was really confused with this one.</t>
-  </si>
-  <si>
-    <t>0a676f995aa369efb9de25a3dff292daf61f49d6</t>
-  </si>
-  <si>
-    <t>It is just a compliment.</t>
-  </si>
-  <si>
-    <t>Patch Set 3:
-(2 comments)
-This is really helpful!
-Thanks so much!!</t>
-  </si>
-  <si>
-    <t>626fdf513492f1cdc271918740e8ac33f1242a84</t>
-  </si>
-  <si>
-    <t>Patch Set 2: Code-Review+2
-b/18830897 is related, maybe add to commit message?</t>
-  </si>
-  <si>
-    <t>ef04a9f9af3347a584ed90b2fccc823732789dad</t>
-  </si>
-  <si>
-    <t>Patch Set 3: -Code-Review
-(4 comments)
-There are a number of other device-specific file_contexts entries removed from our policy that you may want to sweep up here as well.</t>
-  </si>
-  <si>
-    <t>e7523fff54e72b03f796dddabce4d4203796eb69</t>
-  </si>
-  <si>
-    <t>Patch Set 1: Code-Review+1
-Actually, how does this work? Where's dex2oat coming from then?</t>
-  </si>
-  <si>
-    <t>Examples</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patch Set 1: Code-Review+1
-LGTM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Looks Good To Me)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> overall.
-One thing that might be worth emphasizing is that NDK gcc and platform gcc are built from the same source tree, so any changes need to be tested with both the NDK and platform. Not sure if that belongs in your blurb on in the toolchain/gcc/Readme.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Patch Set 3:
-This is still somewhat WIP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Work In Progress)</t>
-    </r>
-  </si>
-  <si>
-    <t>The author is confirming that the code is working.</t>
-  </si>
-  <si>
-    <t>The author is uncertain/confused about how it works.</t>
   </si>
   <si>
     <t>yes</t>
@@ -3463,15 +3164,9 @@
     <t>The author is confused about a change from the code</t>
   </si>
   <si>
-    <t>suggestion?</t>
-  </si>
-  <si>
     <t>The author is uncertain about the impact of the change in the system</t>
   </si>
   <si>
-    <t>[???]</t>
-  </si>
-  <si>
     <t>Just an opinion</t>
   </si>
   <si>
@@ -3523,7 +3218,55 @@
     <t>The author is uncertain about his code</t>
   </si>
   <si>
-    <t>The author is uncertain abou the need of some libs</t>
+    <t>The author is not confused about the code itself, he will look for the bug.</t>
+  </si>
+  <si>
+    <t>The author is not sure about the system behavior</t>
+  </si>
+  <si>
+    <t>The author is uncertain about changes that it could be referenced</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the need of some libs</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the change</t>
+  </si>
+  <si>
+    <t>The author "seems" to be sure about the error!</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the next step in the change</t>
+  </si>
+  <si>
+    <t>The author is uncertain about some specifications of the change</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the change relevance</t>
+  </si>
+  <si>
+    <t>The author express a request to explain better some comments</t>
+  </si>
+  <si>
+    <t>The author is expressing he is having difficult to understand the code</t>
+  </si>
+  <si>
+    <t>Despite it's a question, the author is not in confusion</t>
+  </si>
+  <si>
+    <t>There's no confusion in author's comments, just direct questions</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the repository</t>
+  </si>
+  <si>
+    <t>Hard one!!!</t>
+  </si>
+  <si>
+    <t>The author need to request an explanation about the change</t>
+  </si>
+  <si>
+    <t>The author is uncertain about the gcc</t>
   </si>
 </sst>
 </file>
@@ -3614,7 +3357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3631,9 +3374,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3941,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B380" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3955,4926 +3695,4611 @@
     <col min="4" max="4" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>801</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>804</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>805</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>807</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>808</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>810</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D5" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>811</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>814</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D6" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>815</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>872</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D7" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>819</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>820</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>822</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D9" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>823</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>871</v>
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D10" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>825</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>827</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D11" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>828</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>830</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>832</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="D13" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>833</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>835</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D14" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>836</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" t="s">
         <v>838</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D15" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>839</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>841</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D16" t="s">
-        <v>840</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>842</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>844</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="D17" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>845</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D18" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>848</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D19" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>851</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D20" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>853</v>
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D21" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>855</v>
+        <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D22" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>858</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D23" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>861</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D24" t="s">
-        <v>862</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>864</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D25" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>866</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D26" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>868</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D27" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D28" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D31" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>877</v>
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D33" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="198" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>896</v>
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>877</v>
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>896</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>877</v>
+        <v>81</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>877</v>
+        <v>83</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>896</v>
+        <v>87</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>877</v>
+        <v>89</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>879</v>
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D50" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D51" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="198" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="237.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D91" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>896</v>
+        <v>241</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>310</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D156" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D159" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>877</v>
+        <v>327</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D164" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D188" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D189" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="132" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="118.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D215" s="5" t="s">
-        <v>888</v>
+        <v>802</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>896</v>
+        <v>433</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>896</v>
+        <v>435</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="132" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D241" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>877</v>
+        <v>503</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D252" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>877</v>
+        <v>511</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D256" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>877</v>
+        <v>519</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D260" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>877</v>
+        <v>523</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>877</v>
+        <v>525</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>877</v>
+        <v>533</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>877</v>
+        <v>547</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D274" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>877</v>
+        <v>555</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>877</v>
+        <v>800</v>
+      </c>
+      <c r="D280" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D281" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D282" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D285" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>875</v>
+        <v>802</v>
       </c>
       <c r="D289" t="s">
-        <v>899</v>
+        <v>817</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>877</v>
+        <v>800</v>
+      </c>
+      <c r="D296" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D304" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D308" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D309" t="s">
-        <v>900</v>
+        <v>802</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D311" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D314" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D315" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D321" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D325" t="s">
-        <v>902</v>
+        <v>802</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D333" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D336" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>615</v>
+        <v>672</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D339" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D340" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="D343" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D344" t="s">
-        <v>897</v>
+        <v>802</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>636</v>
+        <v>693</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D350" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>644</v>
+        <v>515</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>645</v>
+        <v>701</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>646</v>
+        <v>702</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>647</v>
+        <v>703</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>648</v>
+        <v>704</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>649</v>
+        <v>705</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>650</v>
+        <v>706</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>651</v>
+        <v>707</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>652</v>
+        <v>708</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>653</v>
+        <v>709</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>654</v>
+        <v>710</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
+      </c>
+      <c r="D356" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>655</v>
+        <v>711</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>656</v>
+        <v>712</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>657</v>
+        <v>713</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>659</v>
+        <v>715</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>660</v>
+        <v>716</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D361" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D362" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>670</v>
+        <v>726</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>671</v>
+        <v>727</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>672</v>
+        <v>728</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D365" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>673</v>
+        <v>729</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>674</v>
+        <v>147</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D368" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>896</v>
+        <v>802</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>877</v>
+        <v>800</v>
+      </c>
+      <c r="D370" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>877</v>
+        <v>802</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D372" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>877</v>
+        <v>800</v>
+      </c>
+      <c r="D375" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>516</v>
+        <v>757</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>877</v>
+        <v>800</v>
+      </c>
+      <c r="D380" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>702</v>
+        <v>758</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>703</v>
+        <v>759</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>705</v>
+        <v>761</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>706</v>
+        <v>762</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>707</v>
+        <v>763</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D383" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>710</v>
+        <v>766</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D385" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D386" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>714</v>
+        <v>770</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>715</v>
+        <v>771</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>716</v>
+        <v>772</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>717</v>
+        <v>773</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>719</v>
+        <v>775</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D389" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>720</v>
+        <v>776</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D390" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>724</v>
+        <v>780</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>725</v>
+        <v>781</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>726</v>
+        <v>782</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>727</v>
+        <v>783</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D393" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>728</v>
+        <v>784</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>729</v>
+        <v>785</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>730</v>
+        <v>786</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>148</v>
+        <v>787</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>731</v>
+        <v>788</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>732</v>
+        <v>789</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>733</v>
+        <v>790</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>734</v>
+        <v>791</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>735</v>
+        <v>792</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>736</v>
+        <v>793</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>737</v>
+        <v>794</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>738</v>
+        <v>795</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D399" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>739</v>
+        <v>796</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>740</v>
+        <v>797</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="66" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>743</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>745</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" ht="171.6" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>747</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D404" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>749</v>
-      </c>
-      <c r="B405" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>751</v>
-      </c>
-      <c r="B406" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="C406" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>753</v>
-      </c>
-      <c r="B407" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>755</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>757</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D409" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>759</v>
-      </c>
-      <c r="B410" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>761</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>763</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>765</v>
-      </c>
-      <c r="B413" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>767</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D414" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>769</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D415" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>771</v>
-      </c>
-      <c r="B416" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>773</v>
-      </c>
-      <c r="B417" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>775</v>
-      </c>
-      <c r="B418" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D418" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>777</v>
-      </c>
-      <c r="B419" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>779</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>781</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>783</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D422" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>785</v>
-      </c>
-      <c r="B423" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>787</v>
-      </c>
-      <c r="B424" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>789</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>791</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>793</v>
-      </c>
-      <c r="B427" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>795</v>
-      </c>
-      <c r="B428" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>797</v>
-      </c>
-      <c r="B429" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" ht="66" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>799</v>
-      </c>
-      <c r="B430" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D430" t="s">
-        <v>908</v>
+      <c r="D401" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C2:C27 B1 B28:B30 B431:B1048576 C31:C430">
+  <conditionalFormatting sqref="B402:B1048576 C2:C401 B1">
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",B1)))</formula>
     </cfRule>

--- a/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
+++ b/SolrScripts/results-gc/set-verifying/verifying-set-felipe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Documents\workspaces\solr\SolrScripts\results-gc\set-verifying\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\febert\Dropbox\fifo\Doutorado\Papers Published\ICSME 2017 - Code Reviews\code-review\data - manual labeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3263,10 +3263,10 @@
     <t>Hard one!!!</t>
   </si>
   <si>
-    <t>The author need to request an explanation about the change</t>
-  </si>
-  <si>
     <t>The author is uncertain about the gcc</t>
+  </si>
+  <si>
+    <t>It is just an answer from the author</t>
   </si>
 </sst>
 </file>
@@ -3683,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B371" workbookViewId="0">
+      <selection activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7836,10 +7836,10 @@
         <v>722</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D362" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="92.4" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
         <v>800</v>
       </c>
       <c r="D383" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
